--- a/outcome/simulate data/B_scarlet fever.xlsx
+++ b/outcome/simulate data/B_scarlet fever.xlsx
@@ -412,19 +412,19 @@
         <v>44713</v>
       </c>
       <c r="B2" t="n">
-        <v>11377.9693990041</v>
+        <v>12694.2473489837</v>
       </c>
       <c r="C2" t="n">
-        <v>2995.54946854657</v>
+        <v>4777.24737563879</v>
       </c>
       <c r="D2" t="n">
-        <v>1477.95428680411</v>
+        <v>2847.72776920421</v>
       </c>
       <c r="E2" t="n">
-        <v>43216.8418528858</v>
+        <v>33731.5410080961</v>
       </c>
       <c r="F2" t="n">
-        <v>87592.8225930522</v>
+        <v>56586.8400413184</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>44713</v>
@@ -450,19 +450,19 @@
         <v>44743</v>
       </c>
       <c r="B3" t="n">
-        <v>5606.86907867376</v>
+        <v>6395.43323286551</v>
       </c>
       <c r="C3" t="n">
-        <v>1458.13004455688</v>
+        <v>2368.30008945495</v>
       </c>
       <c r="D3" t="n">
-        <v>714.753209216568</v>
+        <v>1399.74772730771</v>
       </c>
       <c r="E3" t="n">
-        <v>21559.7922714373</v>
+        <v>17270.4322472301</v>
       </c>
       <c r="F3" t="n">
-        <v>43982.9866589136</v>
+        <v>29220.6698664988</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>44743</v>
@@ -488,19 +488,19 @@
         <v>44774</v>
       </c>
       <c r="B4" t="n">
-        <v>2595.86452625483</v>
+        <v>2834.52410238496</v>
       </c>
       <c r="C4" t="n">
-        <v>666.914582301113</v>
+        <v>1033.12960599134</v>
       </c>
       <c r="D4" t="n">
-        <v>324.81116879921</v>
+        <v>605.507301700542</v>
       </c>
       <c r="E4" t="n">
-        <v>10104.0115443536</v>
+        <v>7776.88185529417</v>
       </c>
       <c r="F4" t="n">
-        <v>20745.9388283344</v>
+        <v>13269.0834023581</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>44774</v>
@@ -526,19 +526,19 @@
         <v>44805</v>
       </c>
       <c r="B5" t="n">
-        <v>3512.69991112806</v>
+        <v>3831.84707069289</v>
       </c>
       <c r="C5" t="n">
-        <v>891.637938419589</v>
+        <v>1374.98327857777</v>
       </c>
       <c r="D5" t="n">
-        <v>431.49425768931</v>
+        <v>799.22676258356</v>
       </c>
       <c r="E5" t="n">
-        <v>13838.6447390404</v>
+        <v>10678.7131174172</v>
       </c>
       <c r="F5" t="n">
-        <v>28596.1178990327</v>
+        <v>18371.5719500104</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>44805</v>
@@ -564,19 +564,19 @@
         <v>44835</v>
       </c>
       <c r="B6" t="n">
-        <v>5466.48497631113</v>
+        <v>6132.37866401507</v>
       </c>
       <c r="C6" t="n">
-        <v>1371.07329331067</v>
+        <v>2166.87922307908</v>
       </c>
       <c r="D6" t="n">
-        <v>659.321287957767</v>
+        <v>1249.30728318629</v>
       </c>
       <c r="E6" t="n">
-        <v>21794.9384194331</v>
+        <v>17354.9442342384</v>
       </c>
       <c r="F6" t="n">
-        <v>45323.0595493065</v>
+        <v>30101.5359351424</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>44835</v>
@@ -602,19 +602,19 @@
         <v>44866</v>
       </c>
       <c r="B7" t="n">
-        <v>8887.79514056626</v>
+        <v>10507.9194370231</v>
       </c>
       <c r="C7" t="n">
-        <v>2202.90677768949</v>
+        <v>3657.09640174702</v>
       </c>
       <c r="D7" t="n">
-        <v>1052.70351602357</v>
+        <v>2091.62835921571</v>
       </c>
       <c r="E7" t="n">
-        <v>35858.4862785363</v>
+        <v>30192.3599394922</v>
       </c>
       <c r="F7" t="n">
-        <v>75038.1292152015</v>
+        <v>52789.6700235843</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>44866</v>
@@ -640,19 +640,19 @@
         <v>44896</v>
       </c>
       <c r="B8" t="n">
-        <v>10798.6244918855</v>
+        <v>13042.8695521627</v>
       </c>
       <c r="C8" t="n">
-        <v>2645.23045603207</v>
+        <v>4471.98209415405</v>
       </c>
       <c r="D8" t="n">
-        <v>1256.23237529041</v>
+        <v>2537.5295285163</v>
       </c>
       <c r="E8" t="n">
-        <v>44083.225584688</v>
+        <v>38040.5025273056</v>
       </c>
       <c r="F8" t="n">
-        <v>92825.4144777881</v>
+        <v>67040.1838650525</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>44896</v>
@@ -678,19 +678,19 @@
         <v>44927</v>
       </c>
       <c r="B9" t="n">
-        <v>6530.59772369263</v>
+        <v>8230.02848909353</v>
       </c>
       <c r="C9" t="n">
-        <v>1581.18738170444</v>
+        <v>2780.51291878654</v>
       </c>
       <c r="D9" t="n">
-        <v>746.291910721252</v>
+        <v>1565.47540783967</v>
       </c>
       <c r="E9" t="n">
-        <v>26972.5822013114</v>
+        <v>24360.0266963877</v>
       </c>
       <c r="F9" t="n">
-        <v>57147.4861458457</v>
+        <v>43266.9645221459</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>44927</v>
@@ -716,19 +716,19 @@
         <v>44958</v>
       </c>
       <c r="B10" t="n">
-        <v>2634.48711675763</v>
+        <v>2981.33458247665</v>
       </c>
       <c r="C10" t="n">
-        <v>630.52618002593</v>
+        <v>992.697240358526</v>
       </c>
       <c r="D10" t="n">
-        <v>295.780344370746</v>
+        <v>554.617889773269</v>
       </c>
       <c r="E10" t="n">
-        <v>11007.5086304529</v>
+        <v>8953.7429251451</v>
       </c>
       <c r="F10" t="n">
-        <v>23465.123698897</v>
+        <v>16026.0894150112</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>44958</v>
@@ -754,19 +754,19 @@
         <v>44986</v>
       </c>
       <c r="B11" t="n">
-        <v>5304.65143420311</v>
+        <v>5812.731284828</v>
       </c>
       <c r="C11" t="n">
-        <v>1255.10726665955</v>
+        <v>1907.88126541181</v>
       </c>
       <c r="D11" t="n">
-        <v>585.206528028226</v>
+        <v>1057.85901977293</v>
       </c>
       <c r="E11" t="n">
-        <v>22419.8581156219</v>
+        <v>17709.6162125818</v>
       </c>
       <c r="F11" t="n">
-        <v>48084.4376996353</v>
+        <v>31939.8373110916</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>44986</v>
@@ -792,19 +792,19 @@
         <v>45017</v>
       </c>
       <c r="B12" t="n">
-        <v>7548.56977264357</v>
+        <v>8456.71947960906</v>
       </c>
       <c r="C12" t="n">
-        <v>1765.81405255818</v>
+        <v>2736.63801181415</v>
       </c>
       <c r="D12" t="n">
-        <v>818.38234467491</v>
+        <v>1506.03544033274</v>
       </c>
       <c r="E12" t="n">
-        <v>32268.916157915</v>
+        <v>26132.8330776895</v>
       </c>
       <c r="F12" t="n">
-        <v>69626.2645244417</v>
+        <v>47486.3356077455</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>45017</v>
@@ -830,19 +830,19 @@
         <v>45047</v>
       </c>
       <c r="B13" t="n">
-        <v>11919.0050084419</v>
+        <v>12921.0998432633</v>
       </c>
       <c r="C13" t="n">
-        <v>2756.86206535821</v>
+        <v>4123.21162764675</v>
       </c>
       <c r="D13" t="n">
-        <v>1270.07577568199</v>
+        <v>2252.34691412845</v>
       </c>
       <c r="E13" t="n">
-        <v>51530.5724491535</v>
+        <v>40491.4508971897</v>
       </c>
       <c r="F13" t="n">
-        <v>111853.704409866</v>
+        <v>74124.8251378643</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>45047</v>
@@ -868,19 +868,19 @@
         <v>45078</v>
       </c>
       <c r="B14" t="n">
-        <v>11377.9693990041</v>
+        <v>12694.2473489837</v>
       </c>
       <c r="C14" t="n">
-        <v>2602.3882615394</v>
+        <v>3995.18982190157</v>
       </c>
       <c r="D14" t="n">
-        <v>1191.81783193661</v>
+        <v>2166.49584199343</v>
       </c>
       <c r="E14" t="n">
-        <v>49745.9159180555</v>
+        <v>40334.4829509203</v>
       </c>
       <c r="F14" t="n">
-        <v>108622.462406284</v>
+        <v>74379.9792428443</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>45078</v>
@@ -906,19 +906,19 @@
         <v>45108</v>
       </c>
       <c r="B15" t="n">
-        <v>5606.86907867376</v>
+        <v>6395.43323286551</v>
       </c>
       <c r="C15" t="n">
-        <v>1268.226269942</v>
+        <v>1985.48104429332</v>
       </c>
       <c r="D15" t="n">
-        <v>577.400499781158</v>
+        <v>1068.91840053934</v>
       </c>
       <c r="E15" t="n">
-        <v>24788.1483063946</v>
+        <v>20600.3307629655</v>
       </c>
       <c r="F15" t="n">
-        <v>54445.711213106</v>
+        <v>38264.4420896888</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>45108</v>
@@ -944,19 +944,19 @@
         <v>45139</v>
       </c>
       <c r="B16" t="n">
-        <v>2595.86452625483</v>
+        <v>2834.52410238496</v>
       </c>
       <c r="C16" t="n">
-        <v>580.715261452726</v>
+        <v>868.180003470675</v>
       </c>
       <c r="D16" t="n">
-        <v>262.848359266766</v>
+        <v>464.069721665179</v>
       </c>
       <c r="E16" t="n">
-        <v>11603.8153049586</v>
+        <v>9254.44821912749</v>
       </c>
       <c r="F16" t="n">
-        <v>25636.5025730643</v>
+        <v>17313.1891866845</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>45139</v>
@@ -982,19 +982,19 @@
         <v>45170</v>
       </c>
       <c r="B17" t="n">
-        <v>3512.69991112806</v>
+        <v>3831.84707069289</v>
       </c>
       <c r="C17" t="n">
-        <v>777.252720918453</v>
+        <v>1158.07811694744</v>
       </c>
       <c r="D17" t="n">
-        <v>349.771550566172</v>
+        <v>614.668573150656</v>
       </c>
       <c r="E17" t="n">
-        <v>15875.2235065301</v>
+        <v>12678.8096228608</v>
       </c>
       <c r="F17" t="n">
-        <v>35277.4851061099</v>
+        <v>23887.7544981934</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>45170</v>
@@ -1020,19 +1020,19 @@
         <v>45200</v>
       </c>
       <c r="B18" t="n">
-        <v>5466.48497631113</v>
+        <v>6132.37866401507</v>
       </c>
       <c r="C18" t="n">
-        <v>1196.47515451868</v>
+        <v>1829.0380290912</v>
       </c>
       <c r="D18" t="n">
-        <v>535.333343432644</v>
+        <v>964.02762400936</v>
       </c>
       <c r="E18" t="n">
-        <v>24975.4103822209</v>
+        <v>20560.5719950792</v>
       </c>
       <c r="F18" t="n">
-        <v>55820.2816298051</v>
+        <v>39009.3262291229</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>45200</v>
@@ -1058,19 +1058,19 @@
         <v>45231</v>
       </c>
       <c r="B19" t="n">
-        <v>8887.79514056626</v>
+        <v>10507.9194370231</v>
       </c>
       <c r="C19" t="n">
-        <v>1924.40950212243</v>
+        <v>3093.40324648288</v>
       </c>
       <c r="D19" t="n">
-        <v>856.119267299529</v>
+        <v>1619.19689608306</v>
       </c>
       <c r="E19" t="n">
-        <v>41047.8655263093</v>
+        <v>35694.1407559809</v>
       </c>
       <c r="F19" t="n">
-        <v>92268.5722397556</v>
+        <v>68192.0593857808</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>45231</v>
@@ -1096,19 +1096,19 @@
         <v>45261</v>
       </c>
       <c r="B20" t="n">
-        <v>10798.6244918855</v>
+        <v>13042.8695521627</v>
       </c>
       <c r="C20" t="n">
-        <v>2313.19756766665</v>
+        <v>3790.34696433691</v>
       </c>
       <c r="D20" t="n">
-        <v>1023.25314986795</v>
+        <v>1970.47181532904</v>
       </c>
       <c r="E20" t="n">
-        <v>50410.8652657693</v>
+        <v>44881.4970648718</v>
       </c>
       <c r="F20" t="n">
-        <v>113960.353732404</v>
+        <v>86332.8492350575</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>45261</v>
@@ -1134,19 +1134,19 @@
         <v>45292</v>
       </c>
       <c r="B21" t="n">
-        <v>6530.59772369263</v>
+        <v>8230.02848909353</v>
       </c>
       <c r="C21" t="n">
-        <v>1384.10892152218</v>
+        <v>2361.30065244757</v>
       </c>
       <c r="D21" t="n">
-        <v>608.823308281908</v>
+        <v>1219.27438270262</v>
       </c>
       <c r="E21" t="n">
-        <v>30813.114463417</v>
+        <v>28684.7711921322</v>
       </c>
       <c r="F21" t="n">
-        <v>70051.0411617674</v>
+        <v>55552.1955453165</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>45292</v>
@@ -1172,19 +1172,19 @@
         <v>45323</v>
       </c>
       <c r="B22" t="n">
-        <v>2634.48711675763</v>
+        <v>2981.33458247665</v>
       </c>
       <c r="C22" t="n">
-        <v>552.481856282409</v>
+        <v>844.61958899024</v>
       </c>
       <c r="D22" t="n">
-        <v>241.660888612678</v>
+        <v>433.211566498544</v>
       </c>
       <c r="E22" t="n">
-        <v>12562.4439779144</v>
+        <v>10523.5019510943</v>
       </c>
       <c r="F22" t="n">
-        <v>28720.089577614</v>
+        <v>20517.3559065189</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>45323</v>
@@ -1210,19 +1210,19 @@
         <v>45352</v>
       </c>
       <c r="B23" t="n">
-        <v>5304.65143420311</v>
+        <v>5812.731284828</v>
       </c>
       <c r="C23" t="n">
-        <v>1100.81495138749</v>
+        <v>1626.24446648629</v>
       </c>
       <c r="D23" t="n">
-        <v>478.835544606981</v>
+        <v>828.59517116724</v>
       </c>
       <c r="E23" t="n">
-        <v>25562.2680296317</v>
+        <v>20776.6087362136</v>
       </c>
       <c r="F23" t="n">
-        <v>58766.1612746175</v>
+        <v>40777.2651414578</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>45352</v>
@@ -1248,19 +1248,19 @@
         <v>45383</v>
       </c>
       <c r="B24" t="n">
-        <v>7548.56977264357</v>
+        <v>8456.71947960906</v>
       </c>
       <c r="C24" t="n">
-        <v>1550.20085770661</v>
+        <v>2336.76874301533</v>
       </c>
       <c r="D24" t="n">
-        <v>670.594196601395</v>
+        <v>1182.81838858173</v>
       </c>
       <c r="E24" t="n">
-        <v>36757.1113957235</v>
+        <v>30604.6991473002</v>
       </c>
       <c r="F24" t="n">
-        <v>84970.7705513263</v>
+        <v>60462.4556459181</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>45383</v>
@@ -1286,19 +1286,19 @@
         <v>45413</v>
       </c>
       <c r="B25" t="n">
-        <v>11919.0050084419</v>
+        <v>12921.0998432633</v>
       </c>
       <c r="C25" t="n">
-        <v>2422.47242536287</v>
+        <v>3526.73693686431</v>
       </c>
       <c r="D25" t="n">
-        <v>1042.18818025925</v>
+        <v>1773.57049092143</v>
       </c>
       <c r="E25" t="n">
-        <v>58643.6728459289</v>
+        <v>47339.7432664833</v>
       </c>
       <c r="F25" t="n">
-        <v>136311.928193165</v>
+        <v>94134.8663693888</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>45413</v>
@@ -1324,19 +1324,19 @@
         <v>45444</v>
       </c>
       <c r="B26" t="n">
-        <v>11377.9693990041</v>
+        <v>12694.2473489837</v>
       </c>
       <c r="C26" t="n">
-        <v>2288.80226705019</v>
+        <v>3422.87005939262</v>
       </c>
       <c r="D26" t="n">
-        <v>979.32418867787</v>
+        <v>1710.27274938893</v>
       </c>
       <c r="E26" t="n">
-        <v>56561.5429119262</v>
+        <v>47078.5957284554</v>
       </c>
       <c r="F26" t="n">
-        <v>132191.351077979</v>
+        <v>94221.1795251693</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>45444</v>
@@ -1362,19 +1362,19 @@
         <v>45474</v>
       </c>
       <c r="B27" t="n">
-        <v>5606.86907867376</v>
+        <v>6395.43323286551</v>
       </c>
       <c r="C27" t="n">
-        <v>1116.39318652906</v>
+        <v>1703.77409979872</v>
       </c>
       <c r="D27" t="n">
-        <v>475.096045568891</v>
+        <v>845.88697669382</v>
       </c>
       <c r="E27" t="n">
-        <v>28159.4166327078</v>
+        <v>24006.4491183853</v>
       </c>
       <c r="F27" t="n">
-        <v>66169.7380110682</v>
+        <v>48353.4648989465</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>45474</v>
@@ -1400,19 +1400,19 @@
         <v>45505</v>
       </c>
       <c r="B28" t="n">
-        <v>2595.86452625483</v>
+        <v>2834.52410238496</v>
       </c>
       <c r="C28" t="n">
-        <v>511.634790399295</v>
+        <v>746.153492247133</v>
       </c>
       <c r="D28" t="n">
-        <v>216.563458691595</v>
+        <v>368.111134512467</v>
       </c>
       <c r="E28" t="n">
-        <v>13170.5520521958</v>
+        <v>10767.9277393775</v>
       </c>
       <c r="F28" t="n">
-        <v>31115.6493315173</v>
+        <v>21826.3620241815</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>45505</v>
@@ -1438,19 +1438,19 @@
         <v>45536</v>
       </c>
       <c r="B29" t="n">
-        <v>3512.69991112806</v>
+        <v>3831.84707069289</v>
       </c>
       <c r="C29" t="n">
-        <v>685.374414055115</v>
+        <v>996.800618688568</v>
       </c>
       <c r="D29" t="n">
-        <v>288.554886928232</v>
+        <v>488.690558021187</v>
       </c>
       <c r="E29" t="n">
-        <v>18003.3867804217</v>
+        <v>14730.1794339728</v>
       </c>
       <c r="F29" t="n">
-        <v>42761.5723198894</v>
+        <v>30045.7042440774</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>45536</v>
@@ -1476,19 +1476,19 @@
         <v>45566</v>
       </c>
       <c r="B30" t="n">
-        <v>5466.48497631113</v>
+        <v>6132.37866401507</v>
       </c>
       <c r="C30" t="n">
-        <v>1055.91945861071</v>
+        <v>1576.61671353433</v>
       </c>
       <c r="D30" t="n">
-        <v>442.202373842948</v>
+        <v>768.157768459065</v>
       </c>
       <c r="E30" t="n">
-        <v>28299.9406370939</v>
+        <v>23852.3845117467</v>
       </c>
       <c r="F30" t="n">
-        <v>67576.430530082</v>
+        <v>48956.1775236689</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>45566</v>
@@ -1514,19 +1514,19 @@
         <v>45597</v>
       </c>
       <c r="B31" t="n">
-        <v>8887.79514056626</v>
+        <v>10507.9194370231</v>
       </c>
       <c r="C31" t="n">
-        <v>1699.7262343966</v>
+        <v>2670.2670352043</v>
       </c>
       <c r="D31" t="n">
-        <v>708.064821947009</v>
+        <v>1293.00681909428</v>
       </c>
       <c r="E31" t="n">
-        <v>46473.8973030651</v>
+        <v>41350.3104518236</v>
       </c>
       <c r="F31" t="n">
-        <v>111561.681942427</v>
+        <v>85395.0414370688</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>45597</v>
@@ -1552,19 +1552,19 @@
         <v>45627</v>
       </c>
       <c r="B32" t="n">
-        <v>10798.6244918855</v>
+        <v>13042.8695521627</v>
       </c>
       <c r="C32" t="n">
-        <v>2044.75708831596</v>
+        <v>3276.382273686</v>
       </c>
       <c r="D32" t="n">
-        <v>847.331416056909</v>
+        <v>1576.83078787244</v>
       </c>
       <c r="E32" t="n">
-        <v>57028.9212264269</v>
+        <v>51922.0383778196</v>
       </c>
       <c r="F32" t="n">
-        <v>137620.638993181</v>
+        <v>107885.035898027</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>45627</v>
@@ -1590,19 +1590,19 @@
         <v>45658</v>
       </c>
       <c r="B33" t="n">
-        <v>6530.59772369263</v>
+        <v>8230.02848909353</v>
       </c>
       <c r="C33" t="n">
-        <v>1224.44738270969</v>
+        <v>2043.84431024306</v>
       </c>
       <c r="D33" t="n">
-        <v>504.75751728724</v>
+        <v>977.698067904559</v>
       </c>
       <c r="E33" t="n">
-        <v>34830.9835366861</v>
+        <v>33140.1802925175</v>
       </c>
       <c r="F33" t="n">
-        <v>84493.4551107033</v>
+        <v>69278.4113570562</v>
       </c>
       <c r="G33" s="1" t="n">
         <v>45658</v>
@@ -1628,19 +1628,19 @@
         <v>45689</v>
       </c>
       <c r="B34" t="n">
-        <v>2634.48711675763</v>
+        <v>2981.33458247665</v>
       </c>
       <c r="C34" t="n">
-        <v>489.127754107966</v>
+        <v>732.019793746714</v>
       </c>
       <c r="D34" t="n">
-        <v>200.590035239191</v>
+        <v>348.070867786361</v>
       </c>
       <c r="E34" t="n">
-        <v>14189.5901634523</v>
+        <v>12142.2343611472</v>
       </c>
       <c r="F34" t="n">
-        <v>34600.5341695352</v>
+        <v>25536.0523252027</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>45689</v>
@@ -1666,19 +1666,19 @@
         <v>45717</v>
       </c>
       <c r="B35" t="n">
-        <v>5304.65143420311</v>
+        <v>5812.731284828</v>
       </c>
       <c r="C35" t="n">
-        <v>975.319249708288</v>
+        <v>1411.22932064169</v>
       </c>
       <c r="D35" t="n">
-        <v>397.915898455979</v>
+        <v>667.039131001732</v>
       </c>
       <c r="E35" t="n">
-        <v>28851.4010636101</v>
+        <v>23942.1364730821</v>
       </c>
       <c r="F35" t="n">
-        <v>70716.7694168071</v>
+        <v>50653.4675692518</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>45717</v>
@@ -1704,19 +1704,19 @@
         <v>45748</v>
       </c>
       <c r="B36" t="n">
-        <v>7548.56977264357</v>
+        <v>8456.71947960906</v>
       </c>
       <c r="C36" t="n">
-        <v>1374.49319695027</v>
+        <v>2030.31382306013</v>
       </c>
       <c r="D36" t="n">
-        <v>557.90130836059</v>
+        <v>953.99528768607</v>
       </c>
       <c r="E36" t="n">
-        <v>41455.9386244309</v>
+        <v>35224.1626612229</v>
       </c>
       <c r="F36" t="n">
-        <v>102134.382476908</v>
+        <v>74964.8402669395</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>45748</v>
@@ -1742,19 +1742,19 @@
         <v>45778</v>
       </c>
       <c r="B37" t="n">
-        <v>11919.0050084419</v>
+        <v>12921.0998432633</v>
       </c>
       <c r="C37" t="n">
-        <v>2149.4618845801</v>
+        <v>3067.90843616998</v>
       </c>
       <c r="D37" t="n">
-        <v>868.01543485078</v>
+        <v>1433.09433411955</v>
       </c>
       <c r="E37" t="n">
-        <v>66092.2072684328</v>
+        <v>54419.7535986467</v>
       </c>
       <c r="F37" t="n">
-        <v>163663.772195118</v>
+        <v>116499.533341713</v>
       </c>
       <c r="G37" s="1" t="n">
         <v>45778</v>
